--- a/triangle_py/data/dahms reserve triangles.xlsx
+++ b/triangle_py/data/dahms reserve triangles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweaver\OneDrive - The Cincinnati Insurance Company\reserving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aweaver\git\Triangle\triangle_py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C120F93-0E54-4647-B1CF-377E8F540DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC24A97-50E8-4F05-A81B-CDA6E7545925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{C1DF7712-12A9-4C6E-94EE-C150873AE49C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{C1DF7712-12A9-4C6E-94EE-C150873AE49C}"/>
   </bookViews>
   <sheets>
     <sheet name="rpt" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>ay</t>
-  </si>
-  <si>
     <t>f_k</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   <si>
     <t>check ATA</t>
   </si>
+  <si>
+    <t>accident_period</t>
+  </si>
 </sst>
 </file>
 
@@ -55,8 +55,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,12 +95,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -418,18 +417,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0103BF-D955-4E11-BAE6-BE27871960A5}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -462,7 +461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,7 +496,7 @@
         <v>3921258</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -530,7 +529,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -561,7 +560,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -590,7 +589,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -617,7 +616,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -642,7 +641,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -665,7 +664,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -686,7 +685,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -705,7 +704,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -722,82 +721,82 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
         <f>SUM(C2:C10)/SUM(B2:B10)</f>
         <v>1.6501557995090628</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f>SUM(D$2:D9)/SUM(C$2:C9)</f>
         <v>0.85613491915346895</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>SUM(E$2:E8)/SUM(D$2:D8)</f>
         <v>0.8717977242430579</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>SUM(F$2:F7)/SUM(E$2:E7)</f>
         <v>0.96143764909835983</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>SUM(G$2:G6)/SUM(F$2:F6)</f>
         <v>0.9811797758409383</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f>SUM(H$2:H5)/SUM(G$2:G5)</f>
         <v>0.98327463910066371</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f>SUM(I$2:I4)/SUM(H$2:H4)</f>
         <v>0.99004069375121129</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f>SUM(J$2:J3)/SUM(I$2:I3)</f>
         <v>0.99173437370817974</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f>SUM(K$2:K2)/SUM(J$2:J2)</f>
         <v>0.99489190491377277</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.6501999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>1</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.6501999999999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.85609999999999997</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.96140000000000003</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.98119999999999996</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.99490000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>31586</v>
@@ -836,20 +835,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3217D470-4D38-46D1-800F-E538128863DB}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -882,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -917,7 +916,7 @@
         <v>3921258</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -950,7 +949,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -981,7 +980,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1010,7 +1009,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1037,7 +1036,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1062,7 +1061,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1085,7 +1084,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1106,7 +1105,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1125,7 +1124,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1135,84 +1134,83 @@
       <c r="C11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
         <f>SUM(C2:C10)/SUM(B2:B10)</f>
         <v>1.2343020218542728</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f>SUM(D$2:D9)/SUM(C$2:C9)</f>
         <v>1.2903556746912781</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>SUM(E$2:E8)/SUM(D$2:D8)</f>
         <v>1.19178737472376</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>SUM(F$2:F7)/SUM(E$2:E7)</f>
         <v>1.1634572458084216</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>SUM(G$2:G6)/SUM(F$2:F6)</f>
         <v>1.1456532987625616</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f>SUM(H$2:H5)/SUM(G$2:G5)</f>
         <v>1.1012675077022365</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f>SUM(I$2:I4)/SUM(H$2:H4)</f>
         <v>1.070157234714493</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f>SUM(J$2:J3)/SUM(I$2:I3)</f>
         <v>1.0760186625723847</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f>SUM(K$2:K2)/SUM(J$2:J2)</f>
         <v>1.0444424852633027</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.2343</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.2904</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.1918</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.1635</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.1456999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.1012999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.0702</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.0444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>1</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.2343</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.2904</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.1918</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1.1635</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.1456999999999999</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.1012999999999999</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1.0702</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1.0444</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>6658</v>
